--- a/dorixanalar_ro'yxati.xlsx
+++ b/dorixanalar_ro'yxati.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">ID raqami </t>
   </si>
@@ -32,76 +32,28 @@
     <t>1</t>
   </si>
   <si>
-    <t>dwadawf</t>
+    <t>Jajs</t>
   </si>
   <si>
-    <t>afwa</t>
+    <t>Toshkent shahri Olmazor tumani</t>
   </si>
   <si>
-    <t>fwafw</t>
+    <t>sjhs</t>
   </si>
   <si>
-    <t>afwfaw</t>
+    <t>sjjs</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>jdbsf</t>
+    <t>hhhs</t>
   </si>
   <si>
-    <t>dks</t>
+    <t>jjshwu17</t>
   </si>
   <si>
-    <t>kjdfnl</t>
-  </si>
-  <si>
-    <t>kdf</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>dawijdawio</t>
-  </si>
-  <si>
-    <t>dawdaw</t>
-  </si>
-  <si>
-    <t>dawfawfaw</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>dawdwa</t>
-  </si>
-  <si>
-    <t>qwdqwerqw</t>
-  </si>
-  <si>
-    <t>dwadaw</t>
-  </si>
-  <si>
-    <t>fwqfwq</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Ushsg</t>
-  </si>
-  <si>
-    <t>Shus</t>
-  </si>
-  <si>
-    <t>Shsy</t>
-  </si>
-  <si>
-    <t>362</t>
+    <t>jsjs</t>
   </si>
 </sst>
 </file>
@@ -146,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -200,58 +152,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
